--- a/Festival/Experiment/Results.xlsx
+++ b/Festival/Experiment/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="59">
   <si>
     <t>Age</t>
   </si>
@@ -179,6 +179,30 @@
   <si>
     <t>Large Glove - Single</t>
   </si>
+  <si>
+    <t>Classification rate</t>
+  </si>
+  <si>
+    <t>Classifcation error</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>High recall, low precision: Most of the positive examples are correctly recognised (low FN) but there are a lot of false positives.</t>
+  </si>
+  <si>
+    <t>Low recall, high precision: We miss a lot of positive examples (high FN) but those we predict as positive are indeed positive (low FP).</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>UAR</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +298,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -513,6 +609,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +635,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFFF9999"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCC00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -16555,78 +16673,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ134"/>
+  <dimension ref="A1:BQ136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK22" sqref="BK22"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="10" width="7.140625" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" customWidth="1"/>
     <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" customWidth="1"/>
     <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" customWidth="1"/>
     <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="7.42578125" customWidth="1"/>
     <col min="31" max="31" width="10.42578125" customWidth="1"/>
-    <col min="32" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" customWidth="1"/>
     <col min="33" max="33" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" customWidth="1"/>
     <col min="35" max="35" width="10.5703125" customWidth="1"/>
-    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" customWidth="1"/>
     <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.42578125" customWidth="1"/>
+    <col min="39" max="39" width="8" customWidth="1"/>
     <col min="41" max="41" width="10.7109375" customWidth="1"/>
-    <col min="42" max="42" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.85546875" customWidth="1"/>
     <col min="43" max="43" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.42578125" customWidth="1"/>
     <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.85546875" customWidth="1"/>
     <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.42578125" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" customWidth="1"/>
     <col min="51" max="51" width="10.5703125" customWidth="1"/>
-    <col min="52" max="52" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.7109375" customWidth="1"/>
     <col min="53" max="53" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.28515625" customWidth="1"/>
     <col min="55" max="55" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.42578125" customWidth="1"/>
     <col min="57" max="57" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" customWidth="1"/>
     <col min="61" max="61" width="10.5703125" customWidth="1"/>
-    <col min="62" max="62" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.85546875" customWidth="1"/>
     <col min="63" max="63" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.140625" customWidth="1"/>
     <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.5703125" customWidth="1"/>
     <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.7109375" customWidth="1"/>
+    <col min="69" max="69" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.25">
@@ -18367,1844 +18483,2829 @@
       <c r="BI11" s="3"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <f>SUM(B3,C4,D5,E6,F7,G8,H9,I10)/SUM(B3:I10)</f>
+        <v>0.32467532467532467</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12">
+        <f>SUM(L3,M4,N5,O6,P7,Q8,R9,S10)/SUM(L3:S10)</f>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12">
+        <f>SUM(V3,W4,X5,Y6,Z7,AA8,AB9,AC10)/SUM(V3:AC10)</f>
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="AE12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI12">
+        <f>SUM(AF3,AG4,AH5,AI6,AJ7,AK8,AL9,AM10)/SUM(AF3:AM10)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AO12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS12">
+        <f>SUM(AP3,AQ4,AR5,AS6,AT7,AU8,AV9,AW10)/SUM(AP3:AW10)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AY12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC12">
+        <f>SUM(AZ3,BA4,BB5,BC6,BD7,BE8,BF9,BG10)/SUM(AZ3:BG10)</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="BI12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM12">
+        <f>SUM(BJ3,BK4,BL5,BM6,BN7,BO8,BP9,BQ10)/SUM(BJ3:BQ10)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <f>1-E12</f>
+        <v>0.67532467532467533</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13">
+        <f>1-O12</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13">
+        <f>1-Y12</f>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="AE13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13">
+        <f>1-AI12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AO13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS13">
+        <f>1-AS12</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AY13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC13">
+        <f>1-BC12</f>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="BI13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM13">
+        <f>1-BM12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <f>B3/SUM(B3:I3)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C14">
+        <f>C4/SUM(B4:I4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <f>D5/SUM(B5:I5)</f>
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <f>E6/SUM(B6:I6)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14">
+        <f>F7/SUM(B7:I7)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="G14">
+        <f>G8/SUM(B8:I8)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14">
+        <f>H9/SUM(B9:I9)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="I14">
+        <f>I10/SUM(B10:I10)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14">
+        <f>L3/SUM(L3:S3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M14">
+        <f>M4/SUM(L4:S4)</f>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f>N5/SUM(L5:S5)</f>
+        <v>0.75</v>
+      </c>
+      <c r="O14">
+        <f>O6/SUM(L6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>P7/SUM(L7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>Q8/SUM(L8:S8)</f>
+        <v>0.2</v>
+      </c>
+      <c r="R14">
+        <f>R9/SUM(L9:S9)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="S14">
+        <f>S10/SUM(L10:S10)</f>
+        <v>0.375</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="60">
+        <f>V3/SUM(V3:AC3)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>W4/SUM(V4:AC4)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X14">
+        <f>X5/SUM(V5:AC5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y14">
+        <f>Y6/SUM(V6:AC6)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z14">
+        <f>Z7/SUM(V7:AC7)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA14">
+        <f>AA8/SUM(V8:AC8)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f>AB9/SUM(V9:AC9)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AC14">
+        <f>AC10/SUM(V10:AC10)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="46">
+        <f>AH5/SUM(AF5:AM5)</f>
+        <v>1</v>
+      </c>
+      <c r="AI14" s="60">
+        <f>AI6/SUM(AF6:AM6)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="60">
+        <f>AJ7/SUM(AF7:AM7)</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="60">
+        <f>AK8/SUM(AF8:AM8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP14" s="69">
+        <f>AP3/SUM(AP3:AW3)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="60">
+        <f>AQ4/SUM(AP4:AW4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="73">
+        <f>AR5/SUM(AP5:AW5)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AS14" s="67">
+        <f>AS6/SUM(AP6:AW6)</f>
+        <v>1</v>
+      </c>
+      <c r="AT14" s="60">
+        <f>AT7/SUM(AP7:AW7)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AU14" s="60">
+        <f>AU8/SUM(AP8:AW8)</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="60">
+        <f>AV9/SUM(AP9:AW9)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AW14" s="83">
+        <f>AW10/SUM(AP10:AW10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ14" s="60">
+        <f>AZ3/SUM(AZ3:BG3)</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="60">
+        <f>BA4/SUM(AZ4:BG4)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BB14" s="60">
+        <f>BB5/SUM(AZ5:BG5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="BC14" s="60">
+        <f>BC6/SUM(AZ6:BG6)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BD14" s="60">
+        <f>BD7/SUM(AZ7:BG7)</f>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="60">
+        <f>BE8/SUM(AZ8:BG8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BF14" s="60">
+        <f>BF9/SUM(AZ9:BG9)</f>
+        <v>0</v>
+      </c>
+      <c r="BG14" s="60">
+        <f>BG10/SUM(AZ10:BG10)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BH14" s="60"/>
+      <c r="BI14" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ14" s="60">
+        <f>BJ3/SUM(BJ3:BQ3)</f>
+        <v>0</v>
+      </c>
+      <c r="BK14" s="68">
+        <f>BK4/SUM(BJ4:BQ4)</f>
+        <v>1</v>
+      </c>
+      <c r="BL14" s="46">
+        <f>BL5/SUM(BJ5:BQ5)</f>
+        <v>1</v>
+      </c>
+      <c r="BM14" s="60">
+        <f>BM6/SUM(BJ6:BQ6)</f>
+        <v>0</v>
+      </c>
+      <c r="BN14" s="72">
+        <f>BN7/SUM(BJ7:BQ7)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BO14" s="54">
+        <f>BO8/SUM(BJ8:BQ8)</f>
+        <v>1</v>
+      </c>
+      <c r="BP14" s="56">
+        <f>BP9/SUM(BJ9:BQ9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BQ14" s="60">
+        <f>BQ10/SUM(BJ10:BQ10)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <f>B3/SUM(B3:B10)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C15">
+        <f>C4/SUM(C3:C10)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D15">
+        <f>D5/SUM(D3:D10)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E15">
+        <f>E6/SUM(E3:E10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F15">
+        <f>F7/SUM(F3:F10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G15">
+        <f>G8/SUM(G3:G10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <f>H9/SUM(H3:H10)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I15">
+        <f>I10/SUM(I3:I10)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15">
+        <f>L3/SUM(L3:L10)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M15">
+        <f>M4/SUM(M3:M10)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N15">
+        <f>N5/SUM(N3:N10)</f>
+        <v>0.375</v>
+      </c>
+      <c r="O15">
+        <f>O6/SUM(O3:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>P7/SUM(P3:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>Q8/SUM(Q3:Q10)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R15">
+        <f>R9/SUM(R3:R10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="S15">
+        <f>S10/SUM(S3:S10)</f>
+        <v>0.6</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15">
+        <f>V3/SUM(V3:V10)</f>
+        <v>0.125</v>
+      </c>
+      <c r="W15">
+        <f>W4/SUM(W3:W10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="X15">
+        <f>X5/SUM(X3:X10)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Y15">
+        <f>Y6/SUM(Y3:Y10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z15">
+        <f>Z7/SUM(Z3:Z10)</f>
+        <v>0.375</v>
+      </c>
+      <c r="AA15">
+        <f>AA8/SUM(AA3:AA10)</f>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f>AB9/SUM(AB3:AB10)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC15">
+        <f>AC10/SUM(AC3:AC10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF15" s="60">
+        <f>AF3/SUM(AF3:AF10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="73">
+        <f>AH5/SUM(AH3:AH10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI15" s="60">
+        <f>AI6/SUM(AI3:AI10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="60">
+        <f>AL9/SUM(AL3:AL10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="69">
+        <f>AP3/SUM(AP3:AP10)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AQ15" s="60">
+        <f>AQ4/SUM(AQ3:AQ10)</f>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="46">
+        <f>AR5/SUM(AR3:AR10)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AS15" s="67">
+        <f>AS6/SUM(AS3:AS10)</f>
+        <v>1</v>
+      </c>
+      <c r="AT15" s="60">
+        <f>AT7/SUM(AT3:AT10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AU15" s="60">
+        <f>AU8/SUM(AU3:AU10)</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="56">
+        <f>AV9/SUM(AV3:AV10)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW15" s="60">
+        <f>AW10/SUM(AW3:AW10)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ15" s="60">
+        <f>AZ3/SUM(AZ3:AZ10)</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="60">
+        <f>BA4/SUM(BA3:BA10)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BB15" s="60">
+        <f>BB5/SUM(BB3:BB10)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BC15" s="60">
+        <f>BC6/SUM(BC3:BC10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="BD15" s="60">
+        <f>BD7/SUM(BD3:BD10)</f>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="54">
+        <f>BE8/SUM(BE3:BE10)</f>
+        <v>1</v>
+      </c>
+      <c r="BF15" s="60">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="60">
+        <f>BG10/SUM(BG3:BG10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BH15" s="60"/>
+      <c r="BI15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ15" s="60">
+        <f>BJ3/SUM(BJ3:BJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="68">
+        <f>BK4/SUM(BK3:BK10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BL15" s="73">
+        <f>BL5/SUM(BL3:BL10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BM15" s="60">
+        <f>BM6/SUM(BM3:BM10)</f>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="72">
+        <f>BN7/SUM(BN3:BN10)</f>
+        <v>1</v>
+      </c>
+      <c r="BO15" s="60">
+        <f>BO8/SUM(BO3:BO10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BP15" s="76">
+        <f>BP9/SUM(BP3:BP10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BQ15" s="83">
+        <f>BQ10/SUM(BQ3:BQ10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <f>2*((B14*B15)/SUM(B14:B15))</f>
+        <v>0.3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:I16" si="0">2*((C14*C15)/SUM(C14:C15))</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.26086956521739124</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <f>2*((L14*L15)/SUM(L14:L15))</f>
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:S16" si="1">2*((M14*M15)/SUM(M14:M15))</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="U16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16">
+        <f>2*((V14*V15)/SUM(V14:V15))</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16:Z16" si="2">2*((W14*W15)/SUM(W14:W15))</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" ref="AA16:AC16" si="3">2*((AA14*AA15)/SUM(AA14:AA15))</f>
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="AE16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="46">
+        <f t="shared" ref="AH16" si="4">2*((AH14*AH15)/SUM(AH14:AH15))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="69">
+        <f>2*((AP14*AP15)/SUM(AP14:AP15))</f>
+        <v>0.6</v>
+      </c>
+      <c r="AQ16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="46">
+        <f t="shared" ref="AR16:AW16" si="5">2*((AR14*AR15)/SUM(AR14:AR15))</f>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="AS16" s="67">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AT16" s="60">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="AU16" s="60">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="60">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AW16" s="83">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ16" s="60">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="60">
+        <f t="shared" ref="BA16:BG16" si="6">2*((BA14*BA15)/SUM(BA14:BA15))</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BB16" s="60">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="BC16" s="60">
+        <f t="shared" si="6"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="BD16" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="54">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BF16" s="60">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="83">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="BH16" s="60"/>
+      <c r="BI16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ16" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="68">
+        <f t="shared" ref="BK16:BQ16" si="7">2*((BK14*BK15)/SUM(BK14:BK15))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BL16" s="46">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BM16" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="72">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="BO16" s="54">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BP16" s="56">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="BQ16" s="83">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(B14:I14)</f>
+        <v>0.3408929612054612</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(L14:S14)</f>
+        <v>0.3501488095238095</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y17">
+        <f>AVERAGE(V14:AC14)</f>
+        <v>0.52480158730158732</v>
+      </c>
+      <c r="AE17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60">
+        <f>AVERAGE(AF14:AM14)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60">
+        <f>AVERAGE(AP14:AW14)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="60"/>
+      <c r="AV17" s="60"/>
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+      <c r="BB17" s="60"/>
+      <c r="BC17" s="60">
+        <f>AVERAGE(AZ14:BG14)</f>
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="BD17" s="60"/>
+      <c r="BE17" s="60"/>
+      <c r="BF17" s="60"/>
+      <c r="BG17" s="60"/>
+      <c r="BH17" s="60"/>
+      <c r="BI17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ17" s="60"/>
+      <c r="BK17" s="60"/>
+      <c r="BL17" s="60"/>
+      <c r="BM17" s="60">
+        <f>AVERAGE(BJ14:BQ14)</f>
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="BN17" s="60"/>
+      <c r="BO17" s="60"/>
+      <c r="BP17" s="60"/>
+      <c r="BQ17" s="60"/>
+    </row>
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="60"/>
+      <c r="BC18" s="60"/>
+      <c r="BD18" s="60"/>
+      <c r="BE18" s="60"/>
+      <c r="BF18" s="60"/>
+      <c r="BG18" s="60"/>
+      <c r="BH18" s="60"/>
+      <c r="BI18" s="60"/>
+      <c r="BJ18" s="60"/>
+      <c r="BK18" s="60"/>
+      <c r="BL18" s="60"/>
+      <c r="BM18" s="60"/>
+      <c r="BN18" s="60"/>
+      <c r="BO18" s="60"/>
+      <c r="BP18" s="60"/>
+      <c r="BQ18" s="60"/>
+    </row>
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="60"/>
+      <c r="AW19" s="60"/>
+      <c r="AX19" s="60"/>
+      <c r="AY19" s="60"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="60"/>
+      <c r="BB19" s="60"/>
+      <c r="BC19" s="60"/>
+      <c r="BD19" s="60"/>
+      <c r="BE19" s="60"/>
+      <c r="BF19" s="60"/>
+      <c r="BG19" s="60"/>
+      <c r="BH19" s="60"/>
+      <c r="BI19" s="60"/>
+      <c r="BJ19" s="60"/>
+      <c r="BK19" s="60"/>
+      <c r="BL19" s="60"/>
+      <c r="BM19" s="60"/>
+      <c r="BN19" s="60"/>
+      <c r="BO19" s="60"/>
+      <c r="BP19" s="60"/>
+      <c r="BQ19" s="60"/>
+    </row>
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="60"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="60"/>
+      <c r="AT20" s="60"/>
+      <c r="AU20" s="60"/>
+      <c r="AV20" s="60"/>
+      <c r="AW20" s="60"/>
+      <c r="AX20" s="60"/>
+      <c r="AY20" s="60"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="60"/>
+      <c r="BB20" s="60"/>
+      <c r="BC20" s="60"/>
+      <c r="BD20" s="60"/>
+      <c r="BE20" s="60"/>
+      <c r="BF20" s="60"/>
+      <c r="BG20" s="60"/>
+      <c r="BH20" s="60"/>
+      <c r="BI20" s="60"/>
+      <c r="BJ20" s="60"/>
+      <c r="BK20" s="60"/>
+      <c r="BL20" s="60"/>
+      <c r="BM20" s="60"/>
+      <c r="BN20" s="60"/>
+      <c r="BO20" s="60"/>
+      <c r="BP20" s="60"/>
+      <c r="BQ20" s="60"/>
+    </row>
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K21" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="U12" s="61" t="s">
+      <c r="U21" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="AE12" s="61" t="s">
+      <c r="AE21" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="AO12" s="61" t="s">
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="AY12" s="61" t="s">
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="60"/>
+      <c r="AV21" s="60"/>
+      <c r="AW21" s="60"/>
+      <c r="AX21" s="60"/>
+      <c r="AY21" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="BI12" s="61" t="s">
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="60"/>
+      <c r="BB21" s="60"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="60"/>
+      <c r="BE21" s="60"/>
+      <c r="BF21" s="60"/>
+      <c r="BG21" s="60"/>
+      <c r="BH21" s="60"/>
+      <c r="BI21" s="77" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="12" t="s">
+      <c r="BJ21" s="60"/>
+      <c r="BK21" s="60"/>
+      <c r="BL21" s="60"/>
+      <c r="BM21" s="60"/>
+      <c r="BN21" s="60"/>
+      <c r="BO21" s="60"/>
+      <c r="BP21" s="60"/>
+      <c r="BQ21" s="60"/>
+    </row>
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="12" t="s">
+      <c r="K22" s="65"/>
+      <c r="L22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="12" t="s">
+      <c r="N22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="12" t="s">
+      <c r="U22" s="65"/>
+      <c r="V22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="W22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="X13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="12" t="s">
+      <c r="X22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AA22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AB13" s="12" t="s">
+      <c r="AB22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AC13" s="13" t="s">
+      <c r="AC22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="12" t="s">
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AG22" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AH13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI13" s="12" t="s">
+      <c r="AH22" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AJ13" s="12" t="s">
+      <c r="AJ22" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AK13" s="12" t="s">
+      <c r="AK22" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AL13" s="12" t="s">
+      <c r="AL22" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AM13" s="13" t="s">
+      <c r="AM22" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="12" t="s">
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="80"/>
+      <c r="AP22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="AQ13" s="12" t="s">
+      <c r="AQ22" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AR13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS13" s="12" t="s">
+      <c r="AR22" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS22" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AT13" s="12" t="s">
+      <c r="AT22" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AU13" s="12" t="s">
+      <c r="AU22" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AV13" s="12" t="s">
+      <c r="AV22" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AW13" s="13" t="s">
+      <c r="AW22" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="12" t="s">
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="80"/>
+      <c r="AZ22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="BA13" s="12" t="s">
+      <c r="BA22" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="BB13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC13" s="12" t="s">
+      <c r="BB22" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC22" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="BD13" s="12" t="s">
+      <c r="BD22" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="BE13" s="12" t="s">
+      <c r="BE22" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="BF13" s="12" t="s">
+      <c r="BF22" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="BG13" s="13" t="s">
+      <c r="BG22" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="BI13" s="65"/>
-      <c r="BJ13" s="12" t="s">
+      <c r="BH22" s="60"/>
+      <c r="BI22" s="80"/>
+      <c r="BJ22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="BK13" s="12" t="s">
+      <c r="BK22" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="BL13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM13" s="12" t="s">
+      <c r="BL22" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM22" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="BN13" s="12" t="s">
+      <c r="BN22" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="BO13" s="12" t="s">
+      <c r="BO22" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="BP13" s="12" t="s">
+      <c r="BP22" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="BQ13" s="13" t="s">
+      <c r="BQ22" s="79" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B23" s="7">
         <v>34</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D23" s="7">
         <v>6</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E23" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F23" s="7">
         <v>6</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G23" s="7">
         <v>3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="1">
-        <v>4</v>
-      </c>
-      <c r="K14" s="63" t="s">
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="7">
-        <v>28</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="L23" s="7">
+        <v>28</v>
+      </c>
+      <c r="M23" s="7">
         <v>2</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N23" s="7">
         <v>5</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O23" s="7">
         <v>3</v>
       </c>
-      <c r="P14" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="P23" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="7">
         <v>2</v>
       </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>4</v>
-      </c>
-      <c r="U14" s="63" t="s">
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4</v>
+      </c>
+      <c r="U23" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V23" s="7">
         <v>6</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W23" s="7">
         <v>3</v>
       </c>
-      <c r="X14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7">
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
         <v>2</v>
       </c>
-      <c r="AA14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="7">
+      <c r="AA23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="7">
         <v>2</v>
       </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="63" t="s">
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AF23" s="2">
         <v>6</v>
       </c>
-      <c r="AG14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="7">
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="2">
         <v>2</v>
       </c>
-      <c r="AK14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="63" t="s">
+      <c r="AK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="AP14" s="7">
+      <c r="AP23" s="2">
         <v>8</v>
       </c>
-      <c r="AQ14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="7">
+      <c r="AQ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2">
         <v>2</v>
       </c>
-      <c r="AV14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="1">
+      <c r="AV23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="15">
         <v>3</v>
       </c>
-      <c r="AY14" s="63" t="s">
+      <c r="AX23" s="60"/>
+      <c r="AY23" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="AZ14" s="7">
+      <c r="AZ23" s="2">
         <v>8</v>
       </c>
-      <c r="BA14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB14" s="7">
-        <v>4</v>
-      </c>
-      <c r="BC14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="7">
+      <c r="BA23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>4</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="2">
         <v>2</v>
       </c>
-      <c r="BE14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="63" t="s">
+      <c r="BE23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="60"/>
+      <c r="BI23" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="BJ14" s="7">
+      <c r="BJ23" s="2">
         <v>12</v>
       </c>
-      <c r="BK14" s="7">
+      <c r="BK23" s="2">
         <v>3</v>
       </c>
-      <c r="BL14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BM14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BN14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="7">
-        <v>0</v>
-      </c>
-      <c r="BP14" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="BL23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B24" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C24" s="7">
         <v>31</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D24" s="7">
         <v>7</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L24" s="7">
         <v>7</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M24" s="7">
         <v>18</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N24" s="7">
         <v>3</v>
       </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
-      <c r="R15" s="7">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="63" t="s">
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
+      <c r="R24" s="7">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V24" s="7">
         <v>7</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W24" s="7">
         <v>13</v>
       </c>
-      <c r="X15" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="7">
+      <c r="X24" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="7">
         <v>3</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z24" s="7">
         <v>2</v>
       </c>
-      <c r="AA15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
+      <c r="AA24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
         <v>2</v>
       </c>
-      <c r="AE15" s="63" t="s">
+      <c r="AE24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AF15" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG15" s="7">
+      <c r="AF24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="2">
         <v>3</v>
       </c>
-      <c r="AH15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="1">
+      <c r="AH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="15">
         <v>2</v>
       </c>
-      <c r="AO15" s="63" t="s">
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AP15" s="7">
+      <c r="AP24" s="2">
         <v>3</v>
       </c>
-      <c r="AQ15" s="7">
+      <c r="AQ24" s="2">
         <v>11</v>
       </c>
-      <c r="AR15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="63" t="s">
+      <c r="AR24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="60"/>
+      <c r="AY24" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AZ15" s="7">
+      <c r="AZ24" s="2">
         <v>6</v>
       </c>
-      <c r="BA15" s="7">
+      <c r="BA24" s="2">
         <v>13</v>
       </c>
-      <c r="BB15" s="7">
+      <c r="BB24" s="2">
         <v>3</v>
       </c>
-      <c r="BC15" s="7">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="7">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="63" t="s">
+      <c r="BC24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="60"/>
+      <c r="BI24" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="BJ15" s="7">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="7">
-        <v>4</v>
-      </c>
-      <c r="BL15" s="7">
-        <v>4</v>
-      </c>
-      <c r="BM15" s="7">
-        <v>1</v>
-      </c>
-      <c r="BN15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BO15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="BJ24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C25" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D25" s="7">
         <v>12</v>
       </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7">
         <v>3</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M25" s="7">
         <v>6</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N25" s="7">
         <v>5</v>
       </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>1</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" s="7">
-        <v>4</v>
-      </c>
-      <c r="W16" s="7">
-        <v>4</v>
-      </c>
-      <c r="X16" s="7">
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" s="7">
+        <v>4</v>
+      </c>
+      <c r="W25" s="7">
+        <v>4</v>
+      </c>
+      <c r="X25" s="7">
         <v>7</v>
       </c>
-      <c r="Y16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP16" s="7">
+      <c r="Y25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="2">
         <v>2</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AQ25" s="2">
         <v>6</v>
       </c>
-      <c r="AR16" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ16" s="7">
+      <c r="AR25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="60"/>
+      <c r="AY25" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ25" s="2">
         <v>3</v>
       </c>
-      <c r="BA16" s="7">
+      <c r="BA25" s="2">
         <v>2</v>
       </c>
-      <c r="BB16" s="7">
+      <c r="BB25" s="2">
         <v>5</v>
       </c>
-      <c r="BC16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="7">
-        <v>1</v>
-      </c>
-      <c r="BG16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ16" s="7">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="7">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="7">
+      <c r="BC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG25" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="60"/>
+      <c r="BI25" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL25" s="2">
         <v>2</v>
       </c>
-      <c r="BM16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BN16" s="7">
-        <v>1</v>
-      </c>
-      <c r="BO16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BP16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="BM25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="7">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D26" s="7">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7">
         <v>14</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F26" s="7">
         <v>6</v>
       </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="63" t="s">
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
         <v>5</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O26" s="7">
         <v>6</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P26" s="7">
         <v>3</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="63" t="s">
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>1</v>
-      </c>
-      <c r="X17" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="7">
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>1</v>
+      </c>
+      <c r="X26" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="7">
         <v>8</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z26" s="7">
         <v>3</v>
       </c>
-      <c r="AA17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="63" t="s">
+      <c r="AA26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="63" t="s">
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AP17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="7">
+      <c r="AP26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="2">
         <v>3</v>
       </c>
-      <c r="AR17" s="7">
+      <c r="AR26" s="2">
         <v>3</v>
       </c>
-      <c r="AS17" s="7">
+      <c r="AS26" s="2">
         <v>2</v>
       </c>
-      <c r="AT17" s="7">
-        <v>4</v>
-      </c>
-      <c r="AU17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="63" t="s">
+      <c r="AT26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="60"/>
+      <c r="AY26" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AZ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="7">
+      <c r="AZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="2">
         <v>2</v>
       </c>
-      <c r="BC17" s="7">
+      <c r="BC26" s="2">
         <v>5</v>
       </c>
-      <c r="BD17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="63" t="s">
+      <c r="BD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="60"/>
+      <c r="BI26" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BJ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BK17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="7">
+      <c r="BJ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
         <v>3</v>
       </c>
-      <c r="BM17" s="7">
+      <c r="BM26" s="2">
         <v>7</v>
       </c>
-      <c r="BN17" s="7">
-        <v>1</v>
-      </c>
-      <c r="BO17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BP17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="BN26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B27" s="7">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D27" s="7">
         <v>6</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E27" s="7">
         <v>8</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F27" s="7">
         <v>24</v>
       </c>
-      <c r="G18" s="7">
-        <v>4</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G27" s="7">
+        <v>4</v>
+      </c>
+      <c r="H27" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="63" t="s">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="7">
-        <v>4</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="L27" s="7">
+        <v>4</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
         <v>2</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P27" s="7">
         <v>14</v>
       </c>
-      <c r="Q18" s="7">
-        <v>4</v>
-      </c>
-      <c r="R18" s="7">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="63" t="s">
+      <c r="Q27" s="7">
+        <v>4</v>
+      </c>
+      <c r="R27" s="7">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V27" s="7">
         <v>5</v>
       </c>
-      <c r="W18" s="7">
-        <v>4</v>
-      </c>
-      <c r="X18" s="7">
+      <c r="W27" s="7">
+        <v>4</v>
+      </c>
+      <c r="X27" s="7">
         <v>5</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y27" s="7">
         <v>6</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z27" s="7">
         <v>10</v>
       </c>
-      <c r="AA18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="7">
+      <c r="AA27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="7">
         <v>2</v>
       </c>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="63" t="s">
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AF18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="7">
+      <c r="AF27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="2">
         <v>2</v>
       </c>
-      <c r="AJ18" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="63" t="s">
+      <c r="AJ27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AP18" s="7">
+      <c r="AP27" s="2">
         <v>2</v>
       </c>
-      <c r="AQ18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS18" s="7">
+      <c r="AQ27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS27" s="2">
         <v>5</v>
       </c>
-      <c r="AT18" s="7">
+      <c r="AT27" s="2">
         <v>12</v>
       </c>
-      <c r="AU18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="63" t="s">
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="60"/>
+      <c r="AY27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AZ18" s="7">
+      <c r="AZ27" s="2">
         <v>6</v>
       </c>
-      <c r="BA18" s="7">
+      <c r="BA27" s="2">
         <v>2</v>
       </c>
-      <c r="BB18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="7">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="7">
+      <c r="BB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="2">
         <v>3</v>
       </c>
-      <c r="BE18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="7">
-        <v>1</v>
-      </c>
-      <c r="BG18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="63" t="s">
+      <c r="BE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="60"/>
+      <c r="BI27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="BJ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="7">
+      <c r="BJ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="2">
         <v>2</v>
       </c>
-      <c r="BM18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="7">
+      <c r="BM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="2">
         <v>5</v>
       </c>
-      <c r="BO18" s="7">
+      <c r="BO27" s="2">
         <v>2</v>
       </c>
-      <c r="BP18" s="7">
-        <v>1</v>
-      </c>
-      <c r="BQ18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="BP27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B28" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C28" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>4</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7">
         <v>20</v>
       </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
         <v>6</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L28" s="7">
         <v>2</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
         <v>2</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q28" s="7">
         <v>19</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R28" s="7">
         <v>2</v>
       </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="63" t="s">
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="7">
-        <v>1</v>
-      </c>
-      <c r="W19" s="7">
+      <c r="V28" s="7">
+        <v>1</v>
+      </c>
+      <c r="W28" s="7">
         <v>2</v>
       </c>
-      <c r="X19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7">
+      <c r="X28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
         <v>2</v>
       </c>
-      <c r="AA19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="7">
+      <c r="AA28" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="7">
         <v>2</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC28" s="1">
         <v>5</v>
       </c>
-      <c r="AE19" s="63" t="s">
+      <c r="AE28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AF19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="63" t="s">
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AP19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="7">
+      <c r="AP28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="2">
         <v>2</v>
       </c>
-      <c r="AV19" s="7">
+      <c r="AV28" s="2">
         <v>2</v>
       </c>
-      <c r="AW19" s="1">
+      <c r="AW28" s="15">
         <v>2</v>
       </c>
-      <c r="AY19" s="63" t="s">
+      <c r="AX28" s="60"/>
+      <c r="AY28" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AZ19" s="7">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="7">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="7">
+      <c r="AZ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="2">
         <v>3</v>
       </c>
-      <c r="BE19" s="7">
+      <c r="BE28" s="2">
         <v>5</v>
       </c>
-      <c r="BF19" s="7">
-        <v>1</v>
-      </c>
-      <c r="BG19" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI19" s="63" t="s">
+      <c r="BF28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="15">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="60"/>
+      <c r="BI28" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="BJ19" s="7">
+      <c r="BJ28" s="2">
         <v>2</v>
       </c>
-      <c r="BK19" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="7">
-        <v>0</v>
-      </c>
-      <c r="BN19" s="7">
-        <v>0</v>
-      </c>
-      <c r="BO19" s="7">
+      <c r="BK28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="2">
         <v>12</v>
       </c>
-      <c r="BP19" s="7">
-        <v>1</v>
-      </c>
-      <c r="BQ19" s="1">
+      <c r="BP28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ28" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D29" s="7">
         <v>8</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E29" s="7">
         <v>3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F29" s="7">
         <v>10</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G29" s="7">
         <v>13</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H29" s="7">
         <v>27</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I29" s="1">
         <v>14</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
         <v>3</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N29" s="7">
         <v>3</v>
       </c>
-      <c r="O20" s="7">
-        <v>1</v>
-      </c>
-      <c r="P20" s="7">
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7">
         <v>6</v>
       </c>
-      <c r="Q20" s="7">
-        <v>9</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="Q29" s="7">
+        <v>9</v>
+      </c>
+      <c r="R29" s="7">
         <v>15</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S29" s="1">
         <v>6</v>
       </c>
-      <c r="U20" s="63" t="s">
+      <c r="U29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V29" s="7">
         <v>2</v>
       </c>
-      <c r="W20" s="7">
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
         <v>5</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y29" s="7">
         <v>2</v>
       </c>
-      <c r="Z20" s="7">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="7">
+      <c r="Z29" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB29" s="7">
         <v>12</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AC29" s="1">
         <v>8</v>
       </c>
-      <c r="AE20" s="63" t="s">
+      <c r="AE29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="AF20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="1">
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="15">
         <v>2</v>
       </c>
-      <c r="AO20" s="63" t="s">
+      <c r="AN29" s="60"/>
+      <c r="AO29" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AP20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="7">
+      <c r="AP29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="2">
         <v>3</v>
       </c>
-      <c r="AR20" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS20" s="7">
+      <c r="AR29" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS29" s="2">
         <v>2</v>
       </c>
-      <c r="AT20" s="7">
+      <c r="AT29" s="2">
         <v>5</v>
       </c>
-      <c r="AU20" s="7">
+      <c r="AU29" s="2">
         <v>6</v>
       </c>
-      <c r="AV20" s="7">
+      <c r="AV29" s="2">
         <v>14</v>
       </c>
-      <c r="AW20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY20" s="63" t="s">
+      <c r="AW29" s="15">
+        <v>4</v>
+      </c>
+      <c r="AX29" s="60"/>
+      <c r="AY29" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AZ20" s="7">
+      <c r="AZ29" s="2">
         <v>2</v>
       </c>
-      <c r="BA20" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="7">
+      <c r="BA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="2">
         <v>3</v>
       </c>
-      <c r="BC20" s="7">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="7">
+      <c r="BC29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="2">
         <v>3</v>
       </c>
-      <c r="BE20" s="7">
+      <c r="BE29" s="2">
         <v>5</v>
       </c>
-      <c r="BF20" s="7">
+      <c r="BF29" s="2">
         <v>10</v>
       </c>
-      <c r="BG20" s="1">
+      <c r="BG29" s="15">
         <v>5</v>
       </c>
-      <c r="BI20" s="63" t="s">
+      <c r="BH29" s="60"/>
+      <c r="BI29" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="BJ20" s="7">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="7">
-        <v>1</v>
-      </c>
-      <c r="BM20" s="7">
-        <v>0</v>
-      </c>
-      <c r="BN20" s="7">
-        <v>1</v>
-      </c>
-      <c r="BO20" s="7">
-        <v>1</v>
-      </c>
-      <c r="BP20" s="7">
+      <c r="BJ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP29" s="2">
         <v>2</v>
       </c>
-      <c r="BQ20" s="1">
+      <c r="BQ29" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B30" s="27">
         <v>3</v>
       </c>
-      <c r="C21" s="27">
-        <v>1</v>
-      </c>
-      <c r="D21" s="27">
-        <v>1</v>
-      </c>
-      <c r="E21" s="27">
-        <v>1</v>
-      </c>
-      <c r="F21" s="27">
-        <v>1</v>
-      </c>
-      <c r="G21" s="27">
+      <c r="C30" s="27">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27">
+        <v>1</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1</v>
+      </c>
+      <c r="G30" s="27">
         <v>2</v>
       </c>
-      <c r="H21" s="27">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="H30" s="27">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18">
         <v>17</v>
       </c>
-      <c r="K21" s="64" t="s">
+      <c r="K30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="27">
-        <v>0</v>
-      </c>
-      <c r="M21" s="27">
-        <v>0</v>
-      </c>
-      <c r="N21" s="27">
-        <v>1</v>
-      </c>
-      <c r="O21" s="27">
-        <v>0</v>
-      </c>
-      <c r="P21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="27">
-        <v>1</v>
-      </c>
-      <c r="R21" s="27">
-        <v>1</v>
-      </c>
-      <c r="S21" s="18">
+      <c r="L30" s="27">
+        <v>0</v>
+      </c>
+      <c r="M30" s="27">
+        <v>0</v>
+      </c>
+      <c r="N30" s="27">
+        <v>1</v>
+      </c>
+      <c r="O30" s="27">
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>1</v>
+      </c>
+      <c r="R30" s="27">
+        <v>1</v>
+      </c>
+      <c r="S30" s="18">
         <v>7</v>
       </c>
-      <c r="U21" s="64" t="s">
+      <c r="U30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="27">
+      <c r="V30" s="27">
         <v>3</v>
       </c>
-      <c r="W21" s="27">
-        <v>1</v>
-      </c>
-      <c r="X21" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="18">
+      <c r="W30" s="27">
+        <v>1</v>
+      </c>
+      <c r="X30" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="18">
         <v>10</v>
       </c>
-      <c r="AE21" s="64" t="s">
+      <c r="AE30" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AF21" s="27">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="18">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="64" t="s">
+      <c r="AF30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="20">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AP21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="27">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="18">
+      <c r="AP30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="20">
         <v>8</v>
       </c>
-      <c r="AY21" s="64" t="s">
+      <c r="AX30" s="60"/>
+      <c r="AY30" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AZ21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BA21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BB21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BC21" s="27">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="27">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="27">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BG21" s="18">
+      <c r="AZ30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BC30" s="19">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="19">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="20">
         <v>2</v>
       </c>
-      <c r="BI21" s="64" t="s">
+      <c r="BH30" s="60"/>
+      <c r="BI30" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="BJ21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="27">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="27">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BN21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BO21" s="27">
-        <v>1</v>
-      </c>
-      <c r="BP21" s="27">
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="18">
+      <c r="BJ30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="19">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="19">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BN30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BO30" s="19">
+        <v>1</v>
+      </c>
+      <c r="BP30" s="19">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -20219,93 +21320,1048 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="60"/>
+      <c r="AP31" s="60"/>
+      <c r="AQ31" s="60"/>
+      <c r="AR31" s="60"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="60"/>
+      <c r="AU31" s="60"/>
+      <c r="AV31" s="60"/>
+      <c r="AW31" s="60"/>
+      <c r="AX31" s="60"/>
+      <c r="AY31" s="60"/>
+      <c r="AZ31" s="60"/>
+      <c r="BA31" s="60"/>
+      <c r="BB31" s="60"/>
+      <c r="BC31" s="60"/>
+      <c r="BD31" s="60"/>
+      <c r="BE31" s="60"/>
+      <c r="BF31" s="60"/>
+      <c r="BG31" s="60"/>
+      <c r="BH31" s="60"/>
+      <c r="BI31" s="60"/>
+      <c r="BJ31" s="60"/>
+      <c r="BK31" s="60"/>
+      <c r="BL31" s="60"/>
+      <c r="BM31" s="60"/>
+      <c r="BN31" s="60"/>
+      <c r="BO31" s="60"/>
+      <c r="BP31" s="60"/>
+      <c r="BQ31" s="60"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="A32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <f>SUM(B23,C24,D25,E26,F27,G28,H29,I30)/SUM(B23:I30)</f>
+        <v>0.44527363184079605</v>
+      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="K32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32">
+        <f>SUM(L23,M24,N25,O26,P27,Q28,R29,S30)/SUM(L23:S30)</f>
+        <v>0.50450450450450446</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y32">
+        <f>SUM(V23,W24,X25,Y26,Z27,AA28,AB29,AC30)/SUM(V23:AC30)</f>
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="AE32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60">
+        <f>SUM(AF23,AG24,AH25,AI26,AJ27,AK28,AL29,AM30)/SUM(AF23:AM30)</f>
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="60"/>
+      <c r="AN32" s="60"/>
+      <c r="AO32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP32" s="60"/>
+      <c r="AQ32" s="60"/>
+      <c r="AR32" s="60"/>
+      <c r="AS32" s="60">
+        <f>SUM(AP23,AQ24,AR25,AS26,AT27,AU28,AV29,AW30)/SUM(AP23:AW30)</f>
+        <v>0.42657342657342656</v>
+      </c>
+      <c r="AT32" s="60"/>
+      <c r="AU32" s="60"/>
+      <c r="AV32" s="60"/>
+      <c r="AW32" s="60"/>
+      <c r="AX32" s="60"/>
+      <c r="AY32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ32" s="60"/>
+      <c r="BA32" s="60"/>
+      <c r="BB32" s="60"/>
+      <c r="BC32" s="60">
+        <f>SUM(AZ23,BA24,BB25,BC26,BD27,BE28,BF29,BG30)/SUM(AZ23:BG30)</f>
+        <v>0.42148760330578511</v>
+      </c>
+      <c r="BD32" s="60"/>
+      <c r="BE32" s="60"/>
+      <c r="BF32" s="60"/>
+      <c r="BG32" s="60"/>
+      <c r="BH32" s="60"/>
+      <c r="BI32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ32" s="60"/>
+      <c r="BK32" s="60"/>
+      <c r="BL32" s="60"/>
+      <c r="BM32" s="60">
+        <f>SUM(BJ23,BK24,BL25,BM26,BN27,BO28,BP29,BQ30)/SUM(BJ23:BQ30)</f>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="BN32" s="60"/>
+      <c r="BO32" s="60"/>
+      <c r="BP32" s="60"/>
+      <c r="BQ32" s="60"/>
+    </row>
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33">
+        <f>1-E32</f>
+        <v>0.55472636815920395</v>
+      </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="K33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33">
+        <f>1-O32</f>
+        <v>0.49549549549549554</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y33">
+        <f>1-Y32</f>
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="AE33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="60">
+        <f>1-AI32</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
+      <c r="AN33" s="60"/>
+      <c r="AO33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP33" s="60"/>
+      <c r="AQ33" s="60"/>
+      <c r="AR33" s="60"/>
+      <c r="AS33" s="60">
+        <f>1-AS32</f>
+        <v>0.57342657342657344</v>
+      </c>
+      <c r="AT33" s="60"/>
+      <c r="AU33" s="60"/>
+      <c r="AV33" s="60"/>
+      <c r="AW33" s="60"/>
+      <c r="AX33" s="60"/>
+      <c r="AY33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ33" s="60"/>
+      <c r="BA33" s="60"/>
+      <c r="BB33" s="60"/>
+      <c r="BC33" s="60">
+        <f>1-BC32</f>
+        <v>0.57851239669421495</v>
+      </c>
+      <c r="BD33" s="60"/>
+      <c r="BE33" s="60"/>
+      <c r="BF33" s="60"/>
+      <c r="BG33" s="60"/>
+      <c r="BH33" s="60"/>
+      <c r="BI33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ33" s="60"/>
+      <c r="BK33" s="60"/>
+      <c r="BL33" s="60"/>
+      <c r="BM33" s="60">
+        <f>1-BM32</f>
+        <v>0.45652173913043481</v>
+      </c>
+      <c r="BN33" s="60"/>
+      <c r="BO33" s="60"/>
+      <c r="BP33" s="60"/>
+      <c r="BQ33" s="60"/>
+    </row>
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <f>B23/SUM(B23:I23)</f>
+        <v>0.53968253968253965</v>
+      </c>
+      <c r="C34">
+        <f>C24/SUM(B24:I24)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <f>D25/SUM(B25:I25)</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="E34">
+        <f>E26/SUM(B26:I26)</f>
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="F34">
+        <f>F27/SUM(B27:I27)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G34">
+        <f>G28/SUM(B28:I28)</f>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="H34">
+        <f>H29/SUM(B29:I29)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="I34">
+        <f>I30/SUM(B30:I30)</f>
+        <v>0.62962962962962965</v>
+      </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="K34" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34">
+        <f>L23/SUM(L23:S23)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M34">
+        <f>M24/SUM(L24:S24)</f>
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="N34">
+        <f>N25/SUM(L25:S25)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="O34">
+        <f>O26/SUM(L26:S26)</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="P34">
+        <f>P27/SUM(L27:S27)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <f>Q28/SUM(L28:S28)</f>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="R34">
+        <f>R29/SUM(L29:S29)</f>
+        <v>0.34883720930232559</v>
+      </c>
+      <c r="S34">
+        <f>S30/SUM(L30:S30)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="U34" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="V34">
+        <f>V23/SUM(V23:AC23)</f>
+        <v>0.4</v>
+      </c>
+      <c r="W34">
+        <f>W24/SUM(V24:AC24)</f>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="X34">
+        <f>X25/SUM(V25:AC25)</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="Y34">
+        <f>Y26/SUM(V26:AC26)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="Z34">
+        <f>Z27/SUM(V27:AC27)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="AA34">
+        <f>AA28/SUM(V28:AC28)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB34">
+        <f>AB29/SUM(V29:AC29)</f>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="AC34">
+        <f>AC30/SUM(V30:AC30)</f>
+        <v>0.625</v>
+      </c>
+      <c r="AE34" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF34" s="69">
+        <f>AF23/SUM(AF23:AM23)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AG34" s="60">
+        <f>AG24/SUM(AF24:AM24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AH34" s="60">
+        <f>AH25/SUM(AF25:AM25)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI34" s="60">
+        <f>AI26/SUM(AF26:AM26)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="71">
+        <f>AJ27/SUM(AF27:AM27)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AK34" s="54">
+        <f>AK28/SUM(AF28:AM28)</f>
+        <v>1</v>
+      </c>
+      <c r="AL34" s="60">
+        <f>AL29/SUM(AF29:AM29)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AM34" s="60">
+        <f>AM30/SUM(AF30:AM30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP34" s="60">
+        <f>AP23/SUM(AP23:AW23)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AQ34" s="68">
+        <f>AQ24/SUM(AP24:AW24)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="AR34" s="60">
+        <f>AR25/SUM(AP25:AW25)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AS34" s="60">
+        <f>AS26/SUM(AP26:AW26)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AT34" s="71">
+        <f>AT27/SUM(AP27:AW27)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AU34" s="60">
+        <f>AU28/SUM(AP28:AW28)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AV34" s="56">
+        <f>AV29/SUM(AP29:AW29)</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="AW34" s="83">
+        <f>AW30/SUM(AP30:AW30)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AX34" s="60"/>
+      <c r="AY34" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ34" s="60">
+        <f>AZ23/SUM(AZ23:BG23)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="BA34" s="42">
+        <f>BA24/SUM(AZ24:BG24)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="BB34" s="73">
+        <f>BB25/SUM(AZ25:BG25)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="BC34" s="67">
+        <f>BC26/SUM(AZ26:BG26)</f>
+        <v>0.625</v>
+      </c>
+      <c r="BD34" s="60">
+        <f>BD27/SUM(AZ27:BG27)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="BE34" s="60">
+        <f>BE28/SUM(AZ28:BG28)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="BF34" s="76">
+        <f>BF29/SUM(AZ29:BG29)</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="BG34" s="60">
+        <f>BG30/SUM(AZ30:BG30)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BH34" s="60"/>
+      <c r="BI34" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ34" s="40">
+        <f>BJ23/SUM(BJ23:BQ23)</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="BK34" s="60">
+        <f>BK24/SUM(BJ24:BQ24)</f>
+        <v>0.4</v>
+      </c>
+      <c r="BL34" s="73">
+        <f>BL25/SUM(BJ25:BQ25)</f>
+        <v>0.4</v>
+      </c>
+      <c r="BM34" s="47">
+        <f>BM26/SUM(BJ26:BQ26)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="BN34" s="72">
+        <f>BN27/SUM(BJ27:BQ27)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BO34" s="75">
+        <f>BO28/SUM(BJ28:BQ28)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BP34" s="60">
+        <f>BP29/SUM(BJ29:BQ29)</f>
+        <v>0.25</v>
+      </c>
+      <c r="BQ34" s="74">
+        <f>BQ30/SUM(BJ30:BQ30)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <f>B23/SUM(B23:B30)</f>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="C35">
+        <f>C24/SUM(C23:C30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <f>D25/SUM(D23:D30)</f>
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="E35">
+        <f>E26/SUM(E23:E30)</f>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="F35">
+        <f>F27/SUM(F23:F30)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G35">
+        <f>G28/SUM(G23:G30)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H35">
+        <f>H29/SUM(H23:H30)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I35">
+        <f>I30/SUM(I23:I30)</f>
+        <v>0.36170212765957449</v>
+      </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="K35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35">
+        <f>L23/SUM(L23:L30)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M35">
+        <f>M24/SUM(M23:M30)</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="N35">
+        <f>N25/SUM(N23:N30)</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="O35">
+        <f>O26/SUM(O23:O30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <f>P27/SUM(P23:P30)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="Q35">
+        <f>Q28/SUM(Q23:Q30)</f>
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="R35">
+        <f>R29/SUM(R23:R30)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S35">
+        <f>S30/SUM(S23:S30)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35">
+        <f>V23/SUM(V23:V30)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="W35">
+        <f>W24/SUM(W23:W30)</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="X35">
+        <f>X25/SUM(X23:X30)</f>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="Y35">
+        <f>Y26/SUM(Y23:Y30)</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="Z35">
+        <f>Z27/SUM(Z23:Z30)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AA35">
+        <f>AA28/SUM(AA23:AA30)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AB35">
+        <f>AB29/SUM(AB23:AB30)</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="AC35">
+        <f>AC30/SUM(AC23:AC30)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AE35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF35" s="60">
+        <f>AF23/SUM(AF23:AF30)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AG35" s="42">
+        <f>AG24/SUM(AG23:AG30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH35" s="46">
+        <f>AH25/SUM(AH23:AH30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI35" s="60">
+        <f>AI26/SUM(AI23:AI30)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="60">
+        <f>AJ27/SUM(AJ23:AJ30)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AK35" s="60">
+        <f>AK28/SUM(AK23:AK30)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL35" s="60">
+        <f>AL29/SUM(AL23:AL30)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM35" s="60">
+        <f>AM30/SUM(AM23:AM30)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP35" s="40">
+        <f>AP23/SUM(AP23:AP30)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AQ35" s="60">
+        <f>AQ24/SUM(AQ23:AQ30)</f>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="AR35" s="60">
+        <f>AR25/SUM(AR23:AR30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AS35" s="60">
+        <f>AS26/SUM(AS23:AS30)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AT35" s="72">
+        <f>AT27/SUM(AT23:AT30)</f>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="AU35" s="60">
+        <f>AU28/SUM(AU23:AU30)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AV35" s="56">
+        <f>AV29/SUM(AV23:AV30)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AW35" s="74">
+        <f>AW30/SUM(AW23:AW30)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ35" s="60">
+        <f>AZ23/SUM(AZ23:AZ30)</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="BA35" s="68">
+        <f>BA24/SUM(BA23:BA30)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="BB35" s="60">
+        <f>BB25/SUM(BB23:BB30)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="BC35" s="47">
+        <f>BC26/SUM(BC23:BC30)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BD35" s="60">
+        <f>BD27/SUM(BD23:BD30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="BE35" s="60">
+        <f>BE28/SUM(BE23:BE30)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="BF35" s="76">
+        <f>BF29/SUM(BF23:BF30)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BG35" s="60">
+        <f>BG30/SUM(BG23:BG30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="BH35" s="60"/>
+      <c r="BI35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ35" s="69">
+        <f>BJ23/SUM(BJ23:BJ30)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="BK35" s="42">
+        <f>BK24/SUM(BK23:BK30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BL35" s="60">
+        <f>BL25/SUM(BL23:BL30)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="BM35" s="67">
+        <f>BM26/SUM(BM23:BM30)</f>
+        <v>0.7</v>
+      </c>
+      <c r="BN35" s="71">
+        <f>BN27/SUM(BN23:BN30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BO35" s="54">
+        <f>BO28/SUM(BO23:BO30)</f>
+        <v>0.75</v>
+      </c>
+      <c r="BP35" s="60">
+        <f>BP29/SUM(BP23:BP30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="BQ35" s="83">
+        <f>BQ30/SUM(BQ23:BQ30)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <f>2*((B34*B35)/SUM(B34:B35))</f>
+        <v>0.50370370370370365</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:I36" si="8">2*((C34*C35)/SUM(C34:C35))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>0.28915662650602408</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>0.45945945945945948</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="K36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36">
+        <f>2*((L34*L35)/SUM(L34:L35))</f>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36:S36" si="9">2*((M34*M35)/SUM(M34:M35))</f>
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>0.60317460317460314</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="9"/>
+        <v>0.46875</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="9"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="U36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36">
+        <f>2*((V34*V35)/SUM(V34:V35))</f>
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ref="W36:AC36" si="10">2*((W34*W35)/SUM(W34:W35))</f>
+        <v>0.44067796610169496</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="10"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="10"/>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="10"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="10"/>
+        <v>9.5238095238095247E-2</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="10"/>
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="AE36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF36" s="60">
+        <f>2*((AF34*AF35)/SUM(AF34:AF35))</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AG36" s="60">
+        <f t="shared" ref="AG36:AM36" si="11">2*((AG34*AG35)/SUM(AG34:AG35))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH36" s="46">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="AI36" s="60">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="60">
+        <f t="shared" si="11"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AK36" s="60">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AL36" s="60">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="AM36" s="60">
+        <f t="shared" si="11"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP36" s="60">
+        <f>2*((AP34*AP35)/SUM(AP34:AP35))</f>
+        <v>0.48484848484848481</v>
+      </c>
+      <c r="AQ36" s="70">
+        <f t="shared" ref="AQ36:AW36" si="12">2*((AQ34*AQ35)/SUM(AQ34:AQ35))</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="AR36" s="60">
+        <f t="shared" si="12"/>
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="AS36" s="60">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AT36" s="71">
+        <f t="shared" si="12"/>
+        <v>0.48</v>
+      </c>
+      <c r="AU36" s="60">
+        <f t="shared" si="12"/>
+        <v>0.19047619047619049</v>
+      </c>
+      <c r="AV36" s="56">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="AW36" s="83">
+        <f t="shared" si="12"/>
+        <v>0.55172413793103459</v>
+      </c>
+      <c r="AX36" s="60"/>
+      <c r="AY36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ36" s="60">
+        <f>2*((AZ34*AZ35)/SUM(AZ34:AZ35))</f>
+        <v>0.35555555555555551</v>
+      </c>
+      <c r="BA36" s="68">
+        <f t="shared" ref="BA36:BG36" si="13">2*((BA34*BA35)/SUM(BA34:BA35))</f>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="BB36" s="73">
+        <f t="shared" si="13"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="BC36" s="66">
+        <f t="shared" si="13"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="BD36" s="60">
+        <f t="shared" si="13"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="BE36" s="60">
+        <f t="shared" si="13"/>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="BF36" s="60">
+        <f t="shared" si="13"/>
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="BG36" s="60">
+        <f t="shared" si="13"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="BH36" s="60"/>
+      <c r="BI36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ36" s="69">
+        <f>2*((BJ34*BJ35)/SUM(BJ34:BJ35))</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="BK36" s="60">
+        <f t="shared" ref="BK36:BQ36" si="14">2*((BK34*BK35)/SUM(BK34:BK35))</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="BL36" s="60">
+        <f t="shared" si="14"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="BM36" s="67">
+        <f t="shared" si="14"/>
+        <v>0.63636363636363646</v>
+      </c>
+      <c r="BN36" s="72">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="BO36" s="54">
+        <f t="shared" si="14"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="BP36" s="60">
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BQ36" s="74">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <f>AVERAGE(B34:I34)</f>
+        <v>0.45636902962270609</v>
+      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="K37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37">
+        <f>AVERAGE(L34:S34)</f>
+        <v>0.50102975559288243</v>
+      </c>
+      <c r="U37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y37">
+        <f>AVERAGE(V34:AC34)</f>
+        <v>0.37392944666130146</v>
+      </c>
+      <c r="AE37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60">
+        <f>AVERAGE(AF34:AM34)</f>
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP37" s="60"/>
+      <c r="AQ37" s="60"/>
+      <c r="AR37" s="60"/>
+      <c r="AS37" s="60">
+        <f>AVERAGE(AP34:AW34)</f>
+        <v>0.4396290204678362</v>
+      </c>
+      <c r="AT37" s="60"/>
+      <c r="AU37" s="60"/>
+      <c r="AV37" s="60"/>
+      <c r="AW37" s="60"/>
+      <c r="AX37" s="60"/>
+      <c r="AY37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="60"/>
+      <c r="BB37" s="60"/>
+      <c r="BC37" s="60">
+        <f>AVERAGE(AZ34:BG34)</f>
+        <v>0.42390667282908662</v>
+      </c>
+      <c r="BD37" s="60"/>
+      <c r="BE37" s="60"/>
+      <c r="BF37" s="60"/>
+      <c r="BG37" s="60"/>
+      <c r="BH37" s="60"/>
+      <c r="BI37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ37" s="60"/>
+      <c r="BK37" s="60"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="60">
+        <f>AVERAGE(BJ34:BQ34)</f>
+        <v>0.50394736842105259</v>
+      </c>
+      <c r="BN37" s="60"/>
+      <c r="BO37" s="60"/>
+      <c r="BP37" s="60"/>
+      <c r="BQ37" s="60"/>
+    </row>
+    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -20318,7 +22374,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -20332,7 +22388,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -20346,7 +22402,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -20360,7 +22416,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -20374,7 +22430,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -20388,7 +22444,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -20402,7 +22458,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -20416,7 +22472,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -20430,8 +22486,8 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -20444,7 +22500,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -20459,7 +22515,7 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -20585,7 +22641,7 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -20613,7 +22669,7 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -20739,7 +22795,7 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -20767,7 +22823,7 @@
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -20893,7 +22949,7 @@
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -20921,7 +22977,7 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -21047,7 +23103,7 @@
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
+      <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -21075,7 +23131,7 @@
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -21201,7 +23257,7 @@
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -21229,7 +23285,7 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -21355,7 +23411,7 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
+      <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -21383,7 +23439,7 @@
       <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -21509,7 +23565,7 @@
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
+      <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -21537,7 +23593,7 @@
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="A126" s="39"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -21662,6 +23718,34 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Festival/Experiment/Results.xlsx
+++ b/Festival/Experiment/Results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="91">
   <si>
     <t>Age</t>
   </si>
@@ -203,12 +204,108 @@
   <si>
     <t>UAR</t>
   </si>
+  <si>
+    <t>Small Glove - age 0 to 10 years old</t>
+  </si>
+  <si>
+    <t>Small Glove - age 11 to 20 years old</t>
+  </si>
+  <si>
+    <t>Avg. no. patterns tested = 4</t>
+  </si>
+  <si>
+    <t>classification rate</t>
+  </si>
+  <si>
+    <t>guess rate</t>
+  </si>
+  <si>
+    <t>Small Glove - right handed</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Clas. Rate</t>
+  </si>
+  <si>
+    <t>Small Glove - ambidextrous</t>
+  </si>
+  <si>
+    <t>Small Glove - left handed</t>
+  </si>
+  <si>
+    <t>Small Glove - overall</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Small Glove - All motors, overlapping</t>
+  </si>
+  <si>
+    <t>Small Glove - All motors, not overlapping</t>
+  </si>
+  <si>
+    <t>Small Glove - Column/row/diagonal motors, overlapping</t>
+  </si>
+  <si>
+    <t>Small Glove - Column/row/diagonal motors, not overlapping</t>
+  </si>
+  <si>
+    <t>no. tests</t>
+  </si>
+  <si>
+    <t>clas. Rate</t>
+  </si>
+  <si>
+    <t>L(S)</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>avg. no. tests</t>
+  </si>
+  <si>
+    <t>Large Glove - Ambidextrous</t>
+  </si>
+  <si>
+    <t>Large Glove - Left-handed</t>
+  </si>
+  <si>
+    <t>Large Glove - Right handed</t>
+  </si>
+  <si>
+    <t>Large Glove - All motors, overlapping</t>
+  </si>
+  <si>
+    <t>Large Glove - All motors, not overlapping</t>
+  </si>
+  <si>
+    <t>Large Glove - Column/row/diagonal motors, overlapping</t>
+  </si>
+  <si>
+    <t>Large Glove - Column/row/diagonal motors, not overlapping</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +325,14 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -542,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -627,6 +732,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,12 +767,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7395D3"/>
+      <color rgb="FF3A68BC"/>
+      <color rgb="FF4774C5"/>
+      <color rgb="FF648ACE"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FFCC00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -16675,8 +16811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23749,4 +23885,5633 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N139" sqref="N139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="15" max="23" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="1"/>
+      <c r="K3">
+        <f>SUM(B3:J3)</f>
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3">
+        <f>SUM(B3,C4,D5,E6,F7,G8,H9,I10)/SUM(B3:J10)</f>
+        <v>0.32857142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>SUM(B4:J4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="1"/>
+      <c r="K5">
+        <f t="shared" ref="K5:K10" si="0">SUM(B5:J5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
+        <v>2</v>
+      </c>
+      <c r="E10" s="27">
+        <v>2</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="18">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="1"/>
+      <c r="K14">
+        <f>SUM(B14:J14)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14">
+        <f>SUM(B14,C15,D16,E17,F18,G19,H20,I21)/SUM(B14:I21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="1"/>
+      <c r="K15">
+        <f t="shared" ref="K15:K21" si="1">SUM(B15:J15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="1"/>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="1"/>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="1"/>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="18"/>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="7">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="7">
+        <f>B24/SUM(B24:B25)</f>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="7">
+        <f>B29/SUM(B29:B30)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" s="39"/>
+      <c r="N39" s="86"/>
+      <c r="O39">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>SUM(B40:J40)</f>
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <f>B40/SUM(B40:J40)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:K47" si="2">SUM(B41:J41)</f>
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41:L47" si="3">B41/SUM(B41:J41)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41">
+        <f>SUM(B40,C41,D42,E43,F44,G45,H46,I47)/SUM(B40:J47)</f>
+        <v>0.35064935064935066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="39"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="7">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>SUM(B40,C40,I40,B41,C41,D41,C42,D42,E42,D43,E43,F43,E44,F44,G44,F45,G45,H45,G46,H46,I46,H47,I47,B47)/SUM(B40:J47)</f>
+        <v>0.59740259740259738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="27">
+        <v>2</v>
+      </c>
+      <c r="C47" s="27">
+        <v>0</v>
+      </c>
+      <c r="D47" s="27">
+        <v>2</v>
+      </c>
+      <c r="E47" s="27">
+        <v>2</v>
+      </c>
+      <c r="F47" s="27">
+        <v>0</v>
+      </c>
+      <c r="G47" s="27">
+        <v>0</v>
+      </c>
+      <c r="H47" s="27">
+        <v>0</v>
+      </c>
+      <c r="I47" s="18">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="4">
+        <v>14</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="K50">
+        <f>SUM(B40:J47)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="7">
+        <v>26</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="7">
+        <v>25</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="7">
+        <f>B50/SUM(B50:B51)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="7">
+        <f>F50/SUM(F50:F51)</f>
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>SUM(B56:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ref="K57:K63" si="4">SUM(B57:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>67</v>
+      </c>
+      <c r="M57">
+        <f>SUM(B56,C57,D58,E59,F60,G61,H62,I63)/SUM(B56:I63)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="27">
+        <v>0</v>
+      </c>
+      <c r="C63" s="27">
+        <v>0</v>
+      </c>
+      <c r="D63" s="27">
+        <v>0</v>
+      </c>
+      <c r="E63" s="27">
+        <v>0</v>
+      </c>
+      <c r="F63" s="27">
+        <v>0</v>
+      </c>
+      <c r="G63" s="27">
+        <v>0</v>
+      </c>
+      <c r="H63" s="27">
+        <v>0</v>
+      </c>
+      <c r="I63" s="18">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="18"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="89"/>
+      <c r="V66" s="89"/>
+      <c r="W66" s="90"/>
+    </row>
+    <row r="67" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="7">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f>B67/SUM(B67:J67)</f>
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>77</v>
+      </c>
+      <c r="M67">
+        <f>SUM(B67:J74)</f>
+        <v>29</v>
+      </c>
+      <c r="O67" s="95"/>
+      <c r="P67" s="97">
+        <v>12</v>
+      </c>
+      <c r="Q67" s="91">
+        <v>3</v>
+      </c>
+      <c r="R67" s="91">
+        <v>1</v>
+      </c>
+      <c r="S67" s="92">
+        <v>1</v>
+      </c>
+      <c r="T67" s="92">
+        <v>1</v>
+      </c>
+      <c r="U67" s="92">
+        <v>0</v>
+      </c>
+      <c r="V67" s="92">
+        <v>0</v>
+      </c>
+      <c r="W67" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f>C68/SUM(B68:J68)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M68">
+        <f>SUM(B67,C68,D69,E70,F71,G72,H73,I74)/SUM(B67:I74)</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="O68" s="87"/>
+      <c r="P68" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="97">
+        <v>3</v>
+      </c>
+      <c r="R68" s="91">
+        <v>4</v>
+      </c>
+      <c r="S68" s="91">
+        <v>1</v>
+      </c>
+      <c r="T68" s="91">
+        <v>0</v>
+      </c>
+      <c r="U68" s="92">
+        <v>0</v>
+      </c>
+      <c r="V68" s="91">
+        <v>0</v>
+      </c>
+      <c r="W68" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f>D69/SUM(B69:I69)</f>
+        <v>0.75</v>
+      </c>
+      <c r="O69" s="87"/>
+      <c r="P69" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="91">
+        <v>1</v>
+      </c>
+      <c r="R69" s="97">
+        <v>2</v>
+      </c>
+      <c r="S69" s="92">
+        <v>0</v>
+      </c>
+      <c r="T69" s="92">
+        <v>1</v>
+      </c>
+      <c r="U69" s="92">
+        <v>0</v>
+      </c>
+      <c r="V69" s="92">
+        <v>0</v>
+      </c>
+      <c r="W69" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f>E70/SUM(B70:I70)</f>
+        <v>1</v>
+      </c>
+      <c r="O70" s="87"/>
+      <c r="P70" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="92">
+        <v>0</v>
+      </c>
+      <c r="R70" s="92">
+        <v>3</v>
+      </c>
+      <c r="S70" s="97">
+        <v>6</v>
+      </c>
+      <c r="T70" s="92">
+        <v>1</v>
+      </c>
+      <c r="U70" s="92">
+        <v>0</v>
+      </c>
+      <c r="V70" s="92">
+        <v>0</v>
+      </c>
+      <c r="W70" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f>F71/SUM(B71:J71)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M71">
+        <f>SUM(B67,C67,I67,B68,C68,D68,C69,D69,E69,D70,E70,F70,E71,F71,G71,F72,G72,H72,G73,H73,I73,H74,I74,B74)/SUM(B67:J74)</f>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="O71" s="87"/>
+      <c r="P71" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="91">
+        <v>1</v>
+      </c>
+      <c r="R71" s="91">
+        <v>2</v>
+      </c>
+      <c r="S71" s="92">
+        <v>0</v>
+      </c>
+      <c r="T71" s="98">
+        <v>5</v>
+      </c>
+      <c r="U71" s="92">
+        <v>3</v>
+      </c>
+      <c r="V71" s="91">
+        <v>1</v>
+      </c>
+      <c r="W71" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f>G72/SUM(B72:I72)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="87"/>
+      <c r="P72" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="92">
+        <v>0</v>
+      </c>
+      <c r="R72" s="92">
+        <v>0</v>
+      </c>
+      <c r="S72" s="92">
+        <v>0</v>
+      </c>
+      <c r="T72" s="92">
+        <v>0</v>
+      </c>
+      <c r="U72" s="98">
+        <v>11</v>
+      </c>
+      <c r="V72" s="92">
+        <v>2</v>
+      </c>
+      <c r="W72" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <f>H73/SUM(B73:I73)</f>
+        <v>0.25</v>
+      </c>
+      <c r="O73" s="87"/>
+      <c r="P73" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="92">
+        <v>0</v>
+      </c>
+      <c r="R73" s="91">
+        <v>1</v>
+      </c>
+      <c r="S73" s="92">
+        <v>0</v>
+      </c>
+      <c r="T73" s="92">
+        <v>1</v>
+      </c>
+      <c r="U73" s="92">
+        <v>0</v>
+      </c>
+      <c r="V73" s="98">
+        <v>2</v>
+      </c>
+      <c r="W73" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="27">
+        <v>1</v>
+      </c>
+      <c r="C74" s="27">
+        <v>0</v>
+      </c>
+      <c r="D74" s="27">
+        <v>0</v>
+      </c>
+      <c r="E74" s="27">
+        <v>0</v>
+      </c>
+      <c r="F74" s="27">
+        <v>0</v>
+      </c>
+      <c r="G74" s="27">
+        <v>0</v>
+      </c>
+      <c r="H74" s="27">
+        <v>0</v>
+      </c>
+      <c r="I74" s="18">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <f>I74/SUM(B74:I74)</f>
+        <v>0.75</v>
+      </c>
+      <c r="O74" s="88"/>
+      <c r="P74" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="94">
+        <v>0</v>
+      </c>
+      <c r="R74" s="94">
+        <v>0</v>
+      </c>
+      <c r="S74" s="94">
+        <v>0</v>
+      </c>
+      <c r="T74" s="94">
+        <v>0</v>
+      </c>
+      <c r="U74" s="94">
+        <v>1</v>
+      </c>
+      <c r="V74" s="94">
+        <v>0</v>
+      </c>
+      <c r="W74" s="97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f>SUM(B78:J78)</f>
+        <v>3</v>
+      </c>
+      <c r="L78" t="s">
+        <v>77</v>
+      </c>
+      <c r="M78">
+        <f>SUM(B78:I85)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>3</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79:K85" si="5">SUM(B79:J79)</f>
+        <v>6</v>
+      </c>
+      <c r="L79" t="s">
+        <v>78</v>
+      </c>
+      <c r="M79">
+        <f>SUM(B78,C79,D80,E81,F82,G83,H84,I85)/SUM(B78:I85)</f>
+        <v>0.17241379310344829</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+      <c r="C80" s="7">
+        <v>2</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="7">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="27">
+        <v>0</v>
+      </c>
+      <c r="C85" s="27">
+        <v>0</v>
+      </c>
+      <c r="D85" s="27">
+        <v>1</v>
+      </c>
+      <c r="E85" s="27">
+        <v>1</v>
+      </c>
+      <c r="F85" s="27">
+        <v>0</v>
+      </c>
+      <c r="G85" s="27">
+        <v>0</v>
+      </c>
+      <c r="H85" s="27">
+        <v>0</v>
+      </c>
+      <c r="I85" s="18">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="7">
+        <v>0</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f>B89/SUM(B89:J89)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>77</v>
+      </c>
+      <c r="M89">
+        <f>SUM(B89:I96)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="7">
+        <v>0</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f>C90/SUM(B90:J90)</f>
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>78</v>
+      </c>
+      <c r="M90">
+        <f>SUM(B89,C90,D91,E92,F93,G94,H95,I96)/SUM(B89:I96)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="7">
+        <v>0</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f>D91/SUM(B91:I91)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f>F93/SUM(B93:J93)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>2</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f>G94/SUM(B94:I94)</f>
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <f>SUM(B89,C89,I89,B90,C90,D90,C91,D91,E91,D92,E92,F92,E93,F93,G93,F94,G94,H94,G95,H95,I95,H96,I96,B96)/SUM(B89:I96)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f>H95/SUM(B95:I95)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="27">
+        <v>1</v>
+      </c>
+      <c r="C96" s="27">
+        <v>0</v>
+      </c>
+      <c r="D96" s="27">
+        <v>1</v>
+      </c>
+      <c r="E96" s="27">
+        <v>1</v>
+      </c>
+      <c r="F96" s="27">
+        <v>0</v>
+      </c>
+      <c r="G96" s="27">
+        <v>0</v>
+      </c>
+      <c r="H96" s="27">
+        <v>0</v>
+      </c>
+      <c r="I96" s="18">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <f>I96/SUM(B96:I96)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" t="s">
+        <v>82</v>
+      </c>
+      <c r="O99" s="18"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="13"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>80</v>
+      </c>
+      <c r="F100">
+        <v>158</v>
+      </c>
+      <c r="O100" s="63"/>
+      <c r="P100" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>5</v>
+      </c>
+      <c r="R100" s="7">
+        <v>4</v>
+      </c>
+      <c r="S100" s="2">
+        <v>2</v>
+      </c>
+      <c r="T100" s="2">
+        <v>6</v>
+      </c>
+      <c r="U100" s="2">
+        <v>3</v>
+      </c>
+      <c r="V100" s="2">
+        <v>2</v>
+      </c>
+      <c r="W100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>39</v>
+      </c>
+      <c r="E101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101">
+        <v>196</v>
+      </c>
+      <c r="O101" s="63"/>
+      <c r="P101" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>29</v>
+      </c>
+      <c r="R101" s="2">
+        <v>5</v>
+      </c>
+      <c r="S101" s="2">
+        <v>3</v>
+      </c>
+      <c r="T101" s="2">
+        <v>0</v>
+      </c>
+      <c r="U101" s="2">
+        <v>1</v>
+      </c>
+      <c r="V101" s="2">
+        <v>0</v>
+      </c>
+      <c r="W101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102">
+        <f>B100/SUM(B100:B101)</f>
+        <v>0.35</v>
+      </c>
+      <c r="E102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102">
+        <f>F100/SUM(F100:F101)</f>
+        <v>0.4463276836158192</v>
+      </c>
+      <c r="O102" s="63"/>
+      <c r="P102" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>7</v>
+      </c>
+      <c r="R102" s="2">
+        <v>8</v>
+      </c>
+      <c r="S102" s="2">
+        <v>0</v>
+      </c>
+      <c r="T102" s="2">
+        <v>1</v>
+      </c>
+      <c r="U102" s="2">
+        <v>1</v>
+      </c>
+      <c r="V102" s="2">
+        <v>1</v>
+      </c>
+      <c r="W102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="O103" s="63"/>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>4</v>
+      </c>
+      <c r="R103" s="2">
+        <v>8</v>
+      </c>
+      <c r="S103" s="2">
+        <v>13</v>
+      </c>
+      <c r="T103" s="2">
+        <v>5</v>
+      </c>
+      <c r="U103" s="2">
+        <v>1</v>
+      </c>
+      <c r="V103" s="2">
+        <v>0</v>
+      </c>
+      <c r="W103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104">
+        <f>SUM(B100:B101)</f>
+        <v>60</v>
+      </c>
+      <c r="E104" t="s">
+        <v>77</v>
+      </c>
+      <c r="F104">
+        <v>354</v>
+      </c>
+      <c r="O104" s="63"/>
+      <c r="P104" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>5</v>
+      </c>
+      <c r="R104" s="2">
+        <v>5</v>
+      </c>
+      <c r="S104" s="2">
+        <v>7</v>
+      </c>
+      <c r="T104" s="2">
+        <v>18</v>
+      </c>
+      <c r="U104" s="2">
+        <v>5</v>
+      </c>
+      <c r="V104" s="2">
+        <v>2</v>
+      </c>
+      <c r="W104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O105" s="63"/>
+      <c r="P105" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>0</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="T105" s="2">
+        <v>4</v>
+      </c>
+      <c r="U105" s="7">
+        <v>18</v>
+      </c>
+      <c r="V105" s="2">
+        <v>4</v>
+      </c>
+      <c r="W105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="J106" s="39"/>
+      <c r="M106" s="39"/>
+      <c r="O106" s="63"/>
+      <c r="P106" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>2</v>
+      </c>
+      <c r="R106" s="2">
+        <v>6</v>
+      </c>
+      <c r="S106" s="2">
+        <v>3</v>
+      </c>
+      <c r="T106" s="2">
+        <v>9</v>
+      </c>
+      <c r="U106" s="2">
+        <v>10</v>
+      </c>
+      <c r="V106" s="2">
+        <v>25</v>
+      </c>
+      <c r="W106" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+      <c r="I107">
+        <v>4</v>
+      </c>
+      <c r="J107">
+        <v>8</v>
+      </c>
+      <c r="O107" s="64"/>
+      <c r="P107" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="27">
+        <v>1</v>
+      </c>
+      <c r="R107" s="27">
+        <v>1</v>
+      </c>
+      <c r="S107" s="27">
+        <v>1</v>
+      </c>
+      <c r="T107" s="27">
+        <v>0</v>
+      </c>
+      <c r="U107" s="27">
+        <v>2</v>
+      </c>
+      <c r="V107" s="27">
+        <v>1</v>
+      </c>
+      <c r="W107" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="18"/>
+      <c r="C108" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O108" s="18"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="13"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="7">
+        <v>30</v>
+      </c>
+      <c r="D109" s="7">
+        <v>5</v>
+      </c>
+      <c r="E109" s="7">
+        <v>4</v>
+      </c>
+      <c r="F109" s="2">
+        <v>2</v>
+      </c>
+      <c r="G109" s="2">
+        <v>6</v>
+      </c>
+      <c r="H109" s="2">
+        <v>3</v>
+      </c>
+      <c r="I109" s="2">
+        <v>2</v>
+      </c>
+      <c r="J109" s="1">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <f>SUM(C109:K109)</f>
+        <v>55</v>
+      </c>
+      <c r="M109" t="s">
+        <v>77</v>
+      </c>
+      <c r="N109">
+        <f>SUM(C109:K116)</f>
+        <v>354</v>
+      </c>
+      <c r="O109" s="63"/>
+      <c r="P109" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>5</v>
+      </c>
+      <c r="R109" s="7">
+        <v>4</v>
+      </c>
+      <c r="S109" s="2">
+        <v>2</v>
+      </c>
+      <c r="T109" s="2">
+        <v>6</v>
+      </c>
+      <c r="U109" s="2">
+        <v>3</v>
+      </c>
+      <c r="V109" s="2">
+        <v>2</v>
+      </c>
+      <c r="W109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="7">
+        <v>10</v>
+      </c>
+      <c r="D110" s="7">
+        <v>29</v>
+      </c>
+      <c r="E110" s="2">
+        <v>5</v>
+      </c>
+      <c r="F110" s="2">
+        <v>3</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>1</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ref="L110:L116" si="6">SUM(C110:K110)</f>
+        <v>54</v>
+      </c>
+      <c r="M110" t="s">
+        <v>78</v>
+      </c>
+      <c r="N110">
+        <f>SUM(C109,D110,E111,F112,G113,H114,I115,J116)/SUM(C109:K116)</f>
+        <v>0.4463276836158192</v>
+      </c>
+      <c r="O110" s="63"/>
+      <c r="P110" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>29</v>
+      </c>
+      <c r="R110" s="2">
+        <v>5</v>
+      </c>
+      <c r="S110" s="2">
+        <v>3</v>
+      </c>
+      <c r="T110" s="2">
+        <v>0</v>
+      </c>
+      <c r="U110" s="2">
+        <v>1</v>
+      </c>
+      <c r="V110" s="2">
+        <v>0</v>
+      </c>
+      <c r="W110" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2">
+        <v>5</v>
+      </c>
+      <c r="D111" s="7">
+        <v>7</v>
+      </c>
+      <c r="E111" s="2">
+        <v>8</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="O111" s="63"/>
+      <c r="P111" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>7</v>
+      </c>
+      <c r="R111" s="2">
+        <v>8</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111" s="2">
+        <v>1</v>
+      </c>
+      <c r="U111" s="2">
+        <v>1</v>
+      </c>
+      <c r="V111" s="2">
+        <v>1</v>
+      </c>
+      <c r="W111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2">
+        <v>8</v>
+      </c>
+      <c r="F112" s="2">
+        <v>13</v>
+      </c>
+      <c r="G112" s="2">
+        <v>5</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="O112" s="63"/>
+      <c r="P112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>4</v>
+      </c>
+      <c r="R112" s="2">
+        <v>8</v>
+      </c>
+      <c r="S112" s="2">
+        <v>13</v>
+      </c>
+      <c r="T112" s="2">
+        <v>5</v>
+      </c>
+      <c r="U112" s="2">
+        <v>1</v>
+      </c>
+      <c r="V112" s="2">
+        <v>0</v>
+      </c>
+      <c r="W112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2">
+        <v>5</v>
+      </c>
+      <c r="E113" s="2">
+        <v>5</v>
+      </c>
+      <c r="F113" s="2">
+        <v>7</v>
+      </c>
+      <c r="G113" s="2">
+        <v>18</v>
+      </c>
+      <c r="H113" s="2">
+        <v>5</v>
+      </c>
+      <c r="I113" s="2">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="O113" s="63"/>
+      <c r="P113" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>5</v>
+      </c>
+      <c r="R113" s="2">
+        <v>5</v>
+      </c>
+      <c r="S113" s="2">
+        <v>7</v>
+      </c>
+      <c r="T113" s="2">
+        <v>18</v>
+      </c>
+      <c r="U113" s="2">
+        <v>5</v>
+      </c>
+      <c r="V113" s="2">
+        <v>2</v>
+      </c>
+      <c r="W113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>4</v>
+      </c>
+      <c r="H114" s="7">
+        <v>18</v>
+      </c>
+      <c r="I114" s="2">
+        <v>4</v>
+      </c>
+      <c r="J114" s="1">
+        <v>3</v>
+      </c>
+      <c r="K114" s="2">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="O114" s="63"/>
+      <c r="P114" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>0</v>
+      </c>
+      <c r="R114" s="2">
+        <v>0</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0</v>
+      </c>
+      <c r="T114" s="2">
+        <v>4</v>
+      </c>
+      <c r="U114" s="7">
+        <v>18</v>
+      </c>
+      <c r="V114" s="2">
+        <v>4</v>
+      </c>
+      <c r="W114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+      <c r="E115" s="2">
+        <v>6</v>
+      </c>
+      <c r="F115" s="2">
+        <v>3</v>
+      </c>
+      <c r="G115" s="2">
+        <v>9</v>
+      </c>
+      <c r="H115" s="2">
+        <v>10</v>
+      </c>
+      <c r="I115" s="2">
+        <v>25</v>
+      </c>
+      <c r="J115" s="1">
+        <v>14</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="O115" s="63"/>
+      <c r="P115" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>2</v>
+      </c>
+      <c r="R115" s="2">
+        <v>6</v>
+      </c>
+      <c r="S115" s="2">
+        <v>3</v>
+      </c>
+      <c r="T115" s="2">
+        <v>9</v>
+      </c>
+      <c r="U115" s="2">
+        <v>10</v>
+      </c>
+      <c r="V115" s="2">
+        <v>25</v>
+      </c>
+      <c r="W115" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="27">
+        <v>3</v>
+      </c>
+      <c r="D116" s="27">
+        <v>1</v>
+      </c>
+      <c r="E116" s="27">
+        <v>1</v>
+      </c>
+      <c r="F116" s="27">
+        <v>1</v>
+      </c>
+      <c r="G116" s="27">
+        <v>0</v>
+      </c>
+      <c r="H116" s="27">
+        <v>2</v>
+      </c>
+      <c r="I116" s="27">
+        <v>1</v>
+      </c>
+      <c r="J116" s="18">
+        <v>17</v>
+      </c>
+      <c r="K116" s="2">
+        <v>5</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="O116" s="64"/>
+      <c r="P116" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q116" s="27">
+        <v>1</v>
+      </c>
+      <c r="R116" s="27">
+        <v>1</v>
+      </c>
+      <c r="S116" s="27">
+        <v>1</v>
+      </c>
+      <c r="T116" s="27">
+        <v>0</v>
+      </c>
+      <c r="U116" s="27">
+        <v>2</v>
+      </c>
+      <c r="V116" s="27">
+        <v>1</v>
+      </c>
+      <c r="W116" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B118" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <f>SUM(C109:K116)</f>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B119" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="2">
+        <v>59</v>
+      </c>
+      <c r="E119" t="s">
+        <v>80</v>
+      </c>
+      <c r="F119">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B120" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="2">
+        <v>100</v>
+      </c>
+      <c r="E120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B121" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121">
+        <f>C119/SUM(C119:C120)</f>
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="E121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F121">
+        <f>F119/SUM(F119:F120)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B123" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E123" t="s">
+        <v>85</v>
+      </c>
+      <c r="H123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B124" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>80</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B125" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125">
+        <v>20</v>
+      </c>
+      <c r="H125" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B126" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126">
+        <f>C124/SUM(C124:C125)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>78</v>
+      </c>
+      <c r="F126">
+        <f>F124/SUM(F124:F125)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H126" t="s">
+        <v>78</v>
+      </c>
+      <c r="I126">
+        <f>I124/SUM(I124:I125)</f>
+        <v>0.38655462184873951</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>7</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="18"/>
+      <c r="C130" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="7">
+        <v>6</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>2</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <f>SUM(C131:K131)</f>
+        <v>8</v>
+      </c>
+      <c r="M131" t="s">
+        <v>77</v>
+      </c>
+      <c r="N131">
+        <f>SUM(C131:K138)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="7">
+        <v>2</v>
+      </c>
+      <c r="D132" s="7">
+        <v>3</v>
+      </c>
+      <c r="E132" s="7">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>1</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ref="L132:L138" si="7">SUM(C132:K132)</f>
+        <v>12</v>
+      </c>
+      <c r="M132" t="s">
+        <v>78</v>
+      </c>
+      <c r="N132">
+        <f>SUM(C131,D132,E133,F134,G135,H136,I137,J138)/SUM(C131:K138)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135" s="2">
+        <v>2</v>
+      </c>
+      <c r="G135" s="2">
+        <v>3</v>
+      </c>
+      <c r="H135" s="2">
+        <v>1</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>1</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2">
+        <v>1</v>
+      </c>
+      <c r="I137" s="2">
+        <v>1</v>
+      </c>
+      <c r="J137" s="1">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>8</v>
+      </c>
+      <c r="B138" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="27">
+        <v>1</v>
+      </c>
+      <c r="D138" s="27">
+        <v>0</v>
+      </c>
+      <c r="E138" s="27">
+        <v>0</v>
+      </c>
+      <c r="F138" s="27">
+        <v>0</v>
+      </c>
+      <c r="G138" s="27">
+        <v>0</v>
+      </c>
+      <c r="H138" s="27">
+        <v>0</v>
+      </c>
+      <c r="I138" s="27">
+        <v>0</v>
+      </c>
+      <c r="J138" s="18">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <f>SUM(K132:K138)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>6</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>7</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="18"/>
+      <c r="C142" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="7">
+        <v>5</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2">
+        <v>2</v>
+      </c>
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
+      <c r="J143" s="1">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <f>C143/SUM(C143:K143)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="M143" t="s">
+        <v>77</v>
+      </c>
+      <c r="N143">
+        <f>SUM(C143:K150)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="7">
+        <v>2</v>
+      </c>
+      <c r="D144" s="7">
+        <v>10</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0</v>
+      </c>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <f>D144/SUM(C144:K144)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="M144" t="s">
+        <v>78</v>
+      </c>
+      <c r="N144">
+        <f>SUM(C143,D144,E145,F146,G147,H148,I149,J150)/SUM(C143:K150)</f>
+        <v>0.41880341880341881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1</v>
+      </c>
+      <c r="D145" s="7">
+        <v>4</v>
+      </c>
+      <c r="E145" s="7">
+        <v>2</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <f>E145/SUM(C145:K145)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+      <c r="E146" s="2">
+        <v>2</v>
+      </c>
+      <c r="F146" s="7">
+        <v>2</v>
+      </c>
+      <c r="G146" s="2">
+        <v>3</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <f>F146/SUM(C146:K146)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" s="7">
+        <v>1</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2</v>
+      </c>
+      <c r="F147" s="2">
+        <v>4</v>
+      </c>
+      <c r="G147" s="2">
+        <v>8</v>
+      </c>
+      <c r="H147" s="2">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <f>G147/SUM(C147:K147)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2">
+        <v>2</v>
+      </c>
+      <c r="I148" s="2">
+        <v>2</v>
+      </c>
+      <c r="J148" s="1">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <f>H148/SUM(C148:K148)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N148">
+        <f>SUM(C143,D143,J143,C144,D144,E144,D145,E145,F145,E146,F146,G146,F147,G147,H147,G148,H148,I148,H149,I149,J149,I150,J150,C150)/SUM(C143:K150)</f>
+        <v>0.68376068376068377</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" s="7">
+        <v>3</v>
+      </c>
+      <c r="F149" s="2">
+        <v>2</v>
+      </c>
+      <c r="G149" s="2">
+        <v>5</v>
+      </c>
+      <c r="H149" s="2">
+        <v>5</v>
+      </c>
+      <c r="I149" s="2">
+        <v>12</v>
+      </c>
+      <c r="J149" s="1">
+        <v>4</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <f>I149/SUM(C149:K149)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="N149">
+        <f>SUM(K145:K150)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>8</v>
+      </c>
+      <c r="B150" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="27">
+        <v>0</v>
+      </c>
+      <c r="D150" s="27">
+        <v>0</v>
+      </c>
+      <c r="E150" s="27">
+        <v>0</v>
+      </c>
+      <c r="F150" s="27">
+        <v>0</v>
+      </c>
+      <c r="G150" s="27">
+        <v>0</v>
+      </c>
+      <c r="H150" s="27">
+        <v>1</v>
+      </c>
+      <c r="I150" s="27">
+        <v>0</v>
+      </c>
+      <c r="J150" s="18">
+        <v>8</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <f>J150/SUM(C150:K150)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>6</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>7</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+      <c r="J153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="18"/>
+      <c r="C154" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="7">
+        <v>7</v>
+      </c>
+      <c r="D155" s="7">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0</v>
+      </c>
+      <c r="G155" s="2">
+        <v>2</v>
+      </c>
+      <c r="H155" s="2">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <f>C155/SUM(C155:K155)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M155" t="s">
+        <v>77</v>
+      </c>
+      <c r="N155">
+        <f>SUM(C155:K162)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="7">
+        <v>5</v>
+      </c>
+      <c r="D156" s="7">
+        <v>13</v>
+      </c>
+      <c r="E156" s="7">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0</v>
+      </c>
+      <c r="G156" s="7">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <f>D156/SUM(C156:K156)</f>
+        <v>0.65</v>
+      </c>
+      <c r="M156" t="s">
+        <v>78</v>
+      </c>
+      <c r="N156">
+        <f>SUM(C155,D156,E157,F158,G159,H160,I161,J162)/SUM(C155:K162)</f>
+        <v>0.45098039215686275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+      <c r="D157" s="2">
+        <v>1</v>
+      </c>
+      <c r="E157" s="7">
+        <v>4</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2">
+        <v>1</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <f>E157/SUM(C157:K157)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1</v>
+      </c>
+      <c r="E158" s="2">
+        <v>2</v>
+      </c>
+      <c r="F158" s="7">
+        <v>5</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <f>F158/SUM(C158:K158)</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="2">
+        <v>4</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1</v>
+      </c>
+      <c r="G159" s="2">
+        <v>2</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <f>G159/SUM(C159:K159)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0</v>
+      </c>
+      <c r="G160" s="2">
+        <v>3</v>
+      </c>
+      <c r="H160" s="7">
+        <v>4</v>
+      </c>
+      <c r="I160" s="2">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <f>H160/SUM(C160:K160)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N160">
+        <f>SUM(C155,D155,J155,C156,D156,E156,D157,E157,F157,E158,F158,G158,F159,G159,H159,G160,H160,I160,H161,I161,J161,I162,J162,C162)/SUM(C155:K162)</f>
+        <v>0.68627450980392157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1</v>
+      </c>
+      <c r="G161" s="2">
+        <v>2</v>
+      </c>
+      <c r="H161" s="2">
+        <v>3</v>
+      </c>
+      <c r="I161" s="2">
+        <v>9</v>
+      </c>
+      <c r="J161" s="1">
+        <v>4</v>
+      </c>
+      <c r="L161">
+        <f>I161/SUM(C161:K161)</f>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="N161">
+        <f>SUM(K158:K162)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="27">
+        <v>1</v>
+      </c>
+      <c r="D162" s="27">
+        <v>1</v>
+      </c>
+      <c r="E162" s="27">
+        <v>1</v>
+      </c>
+      <c r="F162" s="27">
+        <v>0</v>
+      </c>
+      <c r="G162" s="27">
+        <v>0</v>
+      </c>
+      <c r="H162" s="27">
+        <v>0</v>
+      </c>
+      <c r="I162" s="27">
+        <v>1</v>
+      </c>
+      <c r="J162" s="18">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <f>J162/SUM(C162:K162)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>7</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="J165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B166" s="18"/>
+      <c r="C166" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="7">
+        <v>12</v>
+      </c>
+      <c r="D167" s="7">
+        <v>3</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2">
+        <v>1</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <f>C167/SUM(C167:K167)</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="M167" t="s">
+        <v>77</v>
+      </c>
+      <c r="N167">
+        <f>SUM(C167:K174)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="7">
+        <v>1</v>
+      </c>
+      <c r="D168" s="7">
+        <v>3</v>
+      </c>
+      <c r="E168" s="2">
+        <v>4</v>
+      </c>
+      <c r="F168" s="2">
+        <v>1</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <f>D168/SUM(C168:K168)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M168" t="s">
+        <v>78</v>
+      </c>
+      <c r="N168">
+        <f>SUM(C167,D168,E169,F170,G171,H172,I173,J174)/SUM(C167:K174)</f>
+        <v>0.53409090909090906</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+      <c r="E169" s="2">
+        <v>2</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0</v>
+      </c>
+      <c r="G169" s="2">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <f>E169/SUM(C169:K169)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>3</v>
+      </c>
+      <c r="F170" s="2">
+        <v>6</v>
+      </c>
+      <c r="G170" s="2">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <f>F170/SUM(C170:K170)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1</v>
+      </c>
+      <c r="E171" s="2">
+        <v>2</v>
+      </c>
+      <c r="F171" s="2">
+        <v>0</v>
+      </c>
+      <c r="G171" s="2">
+        <v>5</v>
+      </c>
+      <c r="H171" s="2">
+        <v>3</v>
+      </c>
+      <c r="I171" s="7">
+        <v>1</v>
+      </c>
+      <c r="J171" s="1">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <f>G171/SUM(C171:K171)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2">
+        <v>0</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="7">
+        <v>11</v>
+      </c>
+      <c r="I172" s="2">
+        <v>2</v>
+      </c>
+      <c r="J172" s="1">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <f>H172/SUM(C172:K172)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="N172">
+        <f>SUM(C167,D167,J167,C168,D168,E168,D169,E169,F169,E170,F170,G170,F171,G171,H171,G172,H172,I172,H173,I173,J173,I174,J174,C174)/SUM(C167:K174)</f>
+        <v>0.79545454545454541</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1</v>
+      </c>
+      <c r="F173" s="2">
+        <v>0</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2">
+        <v>2</v>
+      </c>
+      <c r="J173" s="1">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <f>I173/SUM(C173:K173)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N173">
+        <f>SUM(K174)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>8</v>
+      </c>
+      <c r="B174" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" s="27">
+        <v>1</v>
+      </c>
+      <c r="D174" s="27">
+        <v>0</v>
+      </c>
+      <c r="E174" s="27">
+        <v>0</v>
+      </c>
+      <c r="F174" s="27">
+        <v>0</v>
+      </c>
+      <c r="G174" s="27">
+        <v>0</v>
+      </c>
+      <c r="H174" s="27">
+        <v>1</v>
+      </c>
+      <c r="I174" s="27">
+        <v>0</v>
+      </c>
+      <c r="J174" s="18">
+        <v>6</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <f>J174/SUM(C174:K174)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B40:I47">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:I63">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:I74 J71">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:I85">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:I96">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109:J116 K112:K116">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:J138">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143:J150 K149">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155:J162">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:J174">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P67:W74">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF5050"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B0F0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="8"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P109:W116">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF00B0F0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P100:W107">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF00B0F0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFF5050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.79998168889431442"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O99:W107">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>